--- a/Assets/asoliddev - Auto Chess/Config/ChampionConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ChampionConfig.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4B2530-D581-4B43-A1CF-01F96106F9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2188442-48C7-475A-A52F-3C5D92468664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="4830" windowWidth="17745" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ChampionAttributesData" sheetId="1" r:id="rId1"/>
-    <sheet name="羁绊" sheetId="2" r:id="rId2"/>
+    <sheet name="ChampionBaseData" sheetId="3" r:id="rId1"/>
+    <sheet name="ChampionAttributesData" sheetId="1" r:id="rId2"/>
+    <sheet name="ChampionType" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="161">
   <si>
     <t>名字</t>
   </si>
@@ -177,203 +178,474 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necromancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alchemist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击弹道预制体路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊2</t>
+  </si>
+  <si>
+    <t>羁绊3</t>
+  </si>
+  <si>
+    <t>type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>type3</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>额外羁绊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>Counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brutal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>Sir Gareth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>羁绊加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int count, int buff_ID}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Wizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Priest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Necromancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Alchemist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Demon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Vampire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Undead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Giant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Pierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Blunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Brutal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Agile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/TypeIcon/Tough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Pure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vampire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Undead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Giant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spirit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wizard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assassin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Necromancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alchemist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lighting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning</t>
   </si>
   <si>
     <t>Soil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓箭手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼金术师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亡灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pierce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钝击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅捷</t>
+  </si>
+  <si>
+    <t>attackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Champion/Orion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Champion/Sir Gareth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Champion/Magnus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Attack/Fire arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Attack/Fire Projectile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,13 +668,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -414,15 +705,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 3" xfId="1" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,11 +998,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
+    <col min="12" max="17" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="L14" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="L15" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="L16" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="L17" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="L18" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="L19" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048576" xr:uid="{70049EC0-6AD3-4E6A-BE5E-82D066390A45}">
+      <formula1>$L$5:$L$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576" xr:uid="{887B8EE1-75F9-4DD5-A9B3-34D09B7ABD53}">
+      <formula1>$N$5:$N$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576" xr:uid="{119E3E28-0546-4736-872A-BEDD930CEC46}">
+      <formula1>$P$5:$P$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576" xr:uid="{A6F96D05-BC46-4B46-8582-CA87F260CFDD}">
+      <formula1>$L$14:$L$19</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,197 +1802,332 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA1A1C-A0BD-45EF-90C7-5C7E8DA35615}">
-  <dimension ref="A1:F9"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/ChampionConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/ChampionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2188442-48C7-475A-A52F-3C5D92468664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97A6980-C6BF-435F-9AE9-93677C014709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12210" yWindow="1995" windowWidth="17745" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChampionBaseData" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="162">
   <si>
     <t>名字</t>
   </si>
@@ -646,6 +646,10 @@
   </si>
   <si>
     <t>Prefab/Projectile/Attack/Fire Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CF615-66F7-411B-B6D2-A7F382BAC937}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1806,14 +1810,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F63A76-963D-497B-A3BF-0225CA276110}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1825,7 +1829,7 @@
       <c r="C1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E1" t="s">
@@ -1842,7 +1846,7 @@
       <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E2" t="s">
@@ -1859,7 +1863,7 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E3" t="s">
@@ -1887,6 +1891,9 @@
       <c r="C5" t="s">
         <v>122</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2133,5 +2140,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>